--- a/02.xlsx
+++ b/02.xlsx
@@ -1122,7 +1122,7 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>45</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1194,7 +1194,7 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="19" spans="1:2">

--- a/02.xlsx
+++ b/02.xlsx
@@ -114,7 +114,7 @@
   <si>
     <t>Diante do exposto, conclui-se que os resultados obtidos na amostragem satisfazem as exigências de
             precisão estabelecidas para o inventário, ou seja, um erro de amostragem máximo de ±10% da média para confiabilidade designada. 
-            O erro estimado foi menor que o limite fixado, assim as unidades amostrais são suficientes para o inventário.</t>
+                        O erro estimado foi menor que o limite fixado, assim as unidades amostrais são suficientes para o inventário.</t>
   </si>
 </sst>
 </file>
